--- a/数据模板/参数表格文件样例.xlsx
+++ b/数据模板/参数表格文件样例.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\MZP2006_solid-source\数据模板\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2020" windowHeight="11020"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2025" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="TEMsection6" sheetId="6" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="SN">TEMsection6!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -102,7 +107,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -115,18 +120,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -134,7 +139,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,6 +216,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -480,17 +488,17 @@
       <selection activeCell="C3" sqref="C3:F102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -516,7 +524,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -525,7 +533,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -534,7 +542,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -543,7 +551,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -552,7 +560,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -561,7 +569,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -570,7 +578,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -579,7 +587,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -588,7 +596,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -597,7 +605,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -606,7 +614,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -615,7 +623,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -624,7 +632,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -633,7 +641,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -642,7 +650,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -651,7 +659,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -660,7 +668,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -669,7 +677,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -678,7 +686,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -687,7 +695,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -696,7 +704,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -705,7 +713,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -714,7 +722,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -723,7 +731,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -732,7 +740,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -741,7 +749,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -750,7 +758,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -759,7 +767,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -768,7 +776,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -777,7 +785,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -786,7 +794,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -795,7 +803,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -804,7 +812,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -813,7 +821,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -822,7 +830,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="2">
         <v>36</v>
       </c>
@@ -831,7 +839,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" s="2">
         <v>37</v>
       </c>
@@ -840,7 +848,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="2">
         <v>38</v>
       </c>
@@ -849,7 +857,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41" s="2">
         <v>39</v>
       </c>
@@ -858,7 +866,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42" s="2">
         <v>40</v>
       </c>
@@ -867,7 +875,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="B43" s="2">
         <v>41</v>
       </c>
@@ -876,7 +884,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6">
       <c r="B44" s="2">
         <v>42</v>
       </c>
@@ -885,7 +893,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6">
       <c r="B45" s="2">
         <v>43</v>
       </c>
@@ -894,7 +902,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="B46" s="2">
         <v>44</v>
       </c>
@@ -903,7 +911,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6">
       <c r="B47" s="2">
         <v>45</v>
       </c>
@@ -912,7 +920,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="B48" s="2">
         <v>46</v>
       </c>
@@ -921,7 +929,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6">
       <c r="B49" s="2">
         <v>47</v>
       </c>
@@ -930,7 +938,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6">
       <c r="B50" s="2">
         <v>48</v>
       </c>
@@ -939,7 +947,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -948,7 +956,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6">
       <c r="B52" s="2">
         <v>50</v>
       </c>
@@ -957,7 +965,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6">
       <c r="B53" s="2">
         <v>51</v>
       </c>
@@ -966,7 +974,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6">
       <c r="B54" s="2">
         <v>52</v>
       </c>
@@ -975,7 +983,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6">
       <c r="B55" s="2">
         <v>53</v>
       </c>
@@ -984,7 +992,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6">
       <c r="B56" s="2">
         <v>54</v>
       </c>
@@ -993,7 +1001,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6">
       <c r="B57" s="2">
         <v>55</v>
       </c>
@@ -1002,7 +1010,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6">
       <c r="B58" s="2">
         <v>56</v>
       </c>
@@ -1011,7 +1019,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6">
       <c r="B59" s="2">
         <v>57</v>
       </c>
@@ -1020,7 +1028,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6">
       <c r="B60" s="2">
         <v>58</v>
       </c>
@@ -1029,7 +1037,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6">
       <c r="B61" s="2">
         <v>59</v>
       </c>
@@ -1038,7 +1046,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6">
       <c r="B62" s="2">
         <v>60</v>
       </c>
@@ -1047,7 +1055,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6">
       <c r="B63" s="2">
         <v>61</v>
       </c>
@@ -1056,7 +1064,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6">
       <c r="B64" s="2">
         <v>62</v>
       </c>
@@ -1065,7 +1073,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6">
       <c r="B65" s="2">
         <v>63</v>
       </c>
@@ -1074,7 +1082,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6">
       <c r="B66" s="2">
         <v>64</v>
       </c>
@@ -1083,7 +1091,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6">
       <c r="B67" s="2">
         <v>65</v>
       </c>
@@ -1092,7 +1100,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6">
       <c r="B68" s="2">
         <v>66</v>
       </c>
@@ -1101,7 +1109,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6">
       <c r="B69" s="2">
         <v>67</v>
       </c>
@@ -1110,7 +1118,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6">
       <c r="B70" s="2">
         <v>68</v>
       </c>
@@ -1119,7 +1127,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6">
       <c r="B71" s="2">
         <v>69</v>
       </c>
@@ -1128,7 +1136,7 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6">
       <c r="B72" s="2">
         <v>70</v>
       </c>
@@ -1137,7 +1145,7 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6">
       <c r="B73" s="2">
         <v>71</v>
       </c>
@@ -1146,7 +1154,7 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6">
       <c r="B74" s="2">
         <v>72</v>
       </c>
@@ -1155,7 +1163,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6">
       <c r="B75" s="2">
         <v>73</v>
       </c>
@@ -1164,7 +1172,7 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6">
       <c r="B76" s="2">
         <v>74</v>
       </c>
@@ -1173,7 +1181,7 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6">
       <c r="B77" s="2">
         <v>75</v>
       </c>
@@ -1182,7 +1190,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6">
       <c r="B78" s="2">
         <v>76</v>
       </c>
@@ -1191,7 +1199,7 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6">
       <c r="B79" s="2">
         <v>77</v>
       </c>
@@ -1200,7 +1208,7 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6">
       <c r="B80" s="2">
         <v>78</v>
       </c>
@@ -1209,7 +1217,7 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6">
       <c r="B81" s="2">
         <v>79</v>
       </c>
@@ -1218,7 +1226,7 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6">
       <c r="B82" s="2">
         <v>80</v>
       </c>
@@ -1227,7 +1235,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6">
       <c r="B83" s="2">
         <v>81</v>
       </c>
@@ -1236,7 +1244,7 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6">
       <c r="B84" s="2">
         <v>82</v>
       </c>
@@ -1245,7 +1253,7 @@
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6">
       <c r="B85" s="2">
         <v>83</v>
       </c>
@@ -1254,7 +1262,7 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6">
       <c r="B86" s="2">
         <v>84</v>
       </c>
@@ -1263,7 +1271,7 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6">
       <c r="B87" s="2">
         <v>85</v>
       </c>
@@ -1272,7 +1280,7 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6">
       <c r="B88" s="2">
         <v>86</v>
       </c>
@@ -1281,7 +1289,7 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6">
       <c r="B89" s="2">
         <v>87</v>
       </c>
@@ -1290,7 +1298,7 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6">
       <c r="B90" s="2">
         <v>88</v>
       </c>
@@ -1299,7 +1307,7 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6">
       <c r="B91" s="2">
         <v>89</v>
       </c>
@@ -1308,7 +1316,7 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6">
       <c r="B92" s="2">
         <v>90</v>
       </c>
@@ -1317,7 +1325,7 @@
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6">
       <c r="B93" s="2">
         <v>91</v>
       </c>
@@ -1326,7 +1334,7 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6">
       <c r="B94" s="2">
         <v>92</v>
       </c>
@@ -1335,7 +1343,7 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6">
       <c r="B95" s="2">
         <v>93</v>
       </c>
@@ -1344,7 +1352,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6">
       <c r="B96" s="2">
         <v>94</v>
       </c>
@@ -1353,7 +1361,7 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6">
       <c r="B97" s="2">
         <v>95</v>
       </c>
@@ -1362,7 +1370,7 @@
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6">
       <c r="B98" s="2">
         <v>96</v>
       </c>
@@ -1371,7 +1379,7 @@
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6">
       <c r="B99" s="2">
         <v>97</v>
       </c>
@@ -1380,7 +1388,7 @@
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6">
       <c r="B100" s="2">
         <v>98</v>
       </c>
@@ -1389,7 +1397,7 @@
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6">
       <c r="B101" s="2">
         <v>99</v>
       </c>
@@ -1398,7 +1406,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6">
       <c r="B102" s="2">
         <v>100</v>
       </c>
@@ -1421,14 +1429,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1446,7 +1454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1491,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>

--- a/数据模板/参数表格文件样例.xlsx
+++ b/数据模板/参数表格文件样例.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\MZP2006_solid-source\数据模板\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2025" windowHeight="11025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2030" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TEMsection6" sheetId="6" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="SN">TEMsection6!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -107,7 +102,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -120,18 +115,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -139,7 +134,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -484,21 +479,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -515,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -524,7 +519,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -533,7 +528,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -542,7 +537,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -551,7 +546,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -560,7 +555,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -569,7 +564,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -578,7 +573,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -587,7 +582,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -596,7 +591,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -605,7 +600,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -614,7 +609,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -623,7 +618,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -632,7 +627,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -641,7 +636,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -650,7 +645,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -659,7 +654,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -668,7 +663,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -677,7 +672,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -686,7 +681,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -695,7 +690,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -704,7 +699,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -713,7 +708,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -722,7 +717,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -731,7 +726,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -740,7 +735,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -749,7 +744,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -758,7 +753,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -767,7 +762,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -776,7 +771,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -785,7 +780,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -794,7 +789,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -803,7 +798,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -812,7 +807,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -821,7 +816,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -830,7 +825,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>36</v>
       </c>
@@ -839,7 +834,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>37</v>
       </c>
@@ -848,7 +843,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>38</v>
       </c>
@@ -857,7 +852,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>39</v>
       </c>
@@ -866,7 +861,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>40</v>
       </c>
@@ -875,7 +870,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>41</v>
       </c>
@@ -884,7 +879,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>42</v>
       </c>
@@ -893,7 +888,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>43</v>
       </c>
@@ -902,7 +897,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>44</v>
       </c>
@@ -911,7 +906,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>45</v>
       </c>
@@ -920,7 +915,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>46</v>
       </c>
@@ -929,7 +924,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>47</v>
       </c>
@@ -938,7 +933,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>48</v>
       </c>
@@ -947,7 +942,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -956,7 +951,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>50</v>
       </c>
@@ -965,7 +960,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>51</v>
       </c>
@@ -974,7 +969,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>52</v>
       </c>
@@ -983,7 +978,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>53</v>
       </c>
@@ -992,7 +987,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>54</v>
       </c>
@@ -1001,7 +996,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>55</v>
       </c>
@@ -1010,7 +1005,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>56</v>
       </c>
@@ -1019,7 +1014,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>57</v>
       </c>
@@ -1028,7 +1023,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>58</v>
       </c>
@@ -1037,7 +1032,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>59</v>
       </c>
@@ -1046,7 +1041,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>60</v>
       </c>
@@ -1055,7 +1050,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>61</v>
       </c>
@@ -1064,7 +1059,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>62</v>
       </c>
@@ -1073,7 +1068,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>63</v>
       </c>
@@ -1082,7 +1077,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>64</v>
       </c>
@@ -1091,7 +1086,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <v>65</v>
       </c>
@@ -1100,7 +1095,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>66</v>
       </c>
@@ -1109,7 +1104,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <v>67</v>
       </c>
@@ -1118,7 +1113,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>68</v>
       </c>
@@ -1127,7 +1122,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>69</v>
       </c>
@@ -1136,7 +1131,7 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>70</v>
       </c>
@@ -1145,7 +1140,7 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>71</v>
       </c>
@@ -1154,7 +1149,7 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>72</v>
       </c>
@@ -1163,7 +1158,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>73</v>
       </c>
@@ -1172,7 +1167,7 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>74</v>
       </c>
@@ -1181,7 +1176,7 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>75</v>
       </c>
@@ -1190,7 +1185,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>76</v>
       </c>
@@ -1199,7 +1194,7 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <v>77</v>
       </c>
@@ -1208,7 +1203,7 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>78</v>
       </c>
@@ -1217,7 +1212,7 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>79</v>
       </c>
@@ -1226,7 +1221,7 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <v>80</v>
       </c>
@@ -1235,7 +1230,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>81</v>
       </c>
@@ -1244,7 +1239,7 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>82</v>
       </c>
@@ -1253,7 +1248,7 @@
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>83</v>
       </c>
@@ -1262,7 +1257,7 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>84</v>
       </c>
@@ -1271,7 +1266,7 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <v>85</v>
       </c>
@@ -1280,7 +1275,7 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>86</v>
       </c>
@@ -1289,7 +1284,7 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <v>87</v>
       </c>
@@ -1298,7 +1293,7 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <v>88</v>
       </c>
@@ -1307,7 +1302,7 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>89</v>
       </c>
@@ -1316,7 +1311,7 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="2:6">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>90</v>
       </c>
@@ -1325,7 +1320,7 @@
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>91</v>
       </c>
@@ -1334,7 +1329,7 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="2:6">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>92</v>
       </c>
@@ -1343,7 +1338,7 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>93</v>
       </c>
@@ -1352,7 +1347,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>94</v>
       </c>
@@ -1361,7 +1356,7 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>95</v>
       </c>
@@ -1370,7 +1365,7 @@
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>96</v>
       </c>
@@ -1379,7 +1374,7 @@
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>97</v>
       </c>
@@ -1388,7 +1383,7 @@
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>98</v>
       </c>
@@ -1397,7 +1392,7 @@
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>99</v>
       </c>
@@ -1406,7 +1401,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>100</v>
       </c>
@@ -1425,18 +1420,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1454,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +1469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1499,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1524,12 +1519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3">
-        <f>TEMsection6!F3</f>
+      <c r="C7" s="4">
+        <f>TEMsection6!E3</f>
         <v>0</v>
       </c>
       <c r="D7" s="6">
@@ -1549,12 +1544,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3">
-        <f>TEMsection6!E4</f>
+      <c r="C8" s="4">
+        <f>TEMsection6!F4</f>
         <v>0</v>
       </c>
       <c r="D8" s="3">
